--- a/app/Licenciatura_em_Psicologia_das_Organizacoes_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Psicologia_das_Organizacoes_Pos_Laboral.xlsx
@@ -14,34 +14,736 @@
     <sheet name="20154010" sheetId="4" r:id="rId7"/>
     <sheet name="20154022" sheetId="5" r:id="rId8"/>
     <sheet name="20154011" sheetId="6" r:id="rId9"/>
-    <sheet name="20154486" sheetId="7" r:id="rId10"/>
-    <sheet name="20154031" sheetId="8" r:id="rId11"/>
-    <sheet name="20154008" sheetId="9" r:id="rId12"/>
-    <sheet name="20154009" sheetId="10" r:id="rId13"/>
-    <sheet name="20154018" sheetId="11" r:id="rId14"/>
-    <sheet name="20154016" sheetId="12" r:id="rId15"/>
-    <sheet name="20154012" sheetId="13" r:id="rId16"/>
-    <sheet name="20154030" sheetId="14" r:id="rId17"/>
-    <sheet name="20154021" sheetId="15" r:id="rId18"/>
-    <sheet name="20154028" sheetId="16" r:id="rId19"/>
-    <sheet name="20154015" sheetId="17" r:id="rId20"/>
-    <sheet name="20154014" sheetId="18" r:id="rId21"/>
-    <sheet name="20154017" sheetId="19" r:id="rId22"/>
-    <sheet name="20154024" sheetId="20" r:id="rId23"/>
-    <sheet name="20154027" sheetId="21" r:id="rId24"/>
-    <sheet name="20154019" sheetId="22" r:id="rId25"/>
-    <sheet name="20154020" sheetId="23" r:id="rId26"/>
-    <sheet name="20154013" sheetId="24" r:id="rId27"/>
-    <sheet name="20154487" sheetId="25" r:id="rId28"/>
-    <sheet name="20154029" sheetId="26" r:id="rId29"/>
-    <sheet name="20154025" sheetId="27" r:id="rId30"/>
-    <sheet name="20154023" sheetId="28" r:id="rId31"/>
-    <sheet name="Sheet2" sheetId="29" r:id="rId32"/>
-    <sheet name="Sheet3" sheetId="30" r:id="rId33"/>
+    <sheet name="20154031" sheetId="7" r:id="rId10"/>
+    <sheet name="20154008" sheetId="8" r:id="rId11"/>
+    <sheet name="20154009" sheetId="9" r:id="rId12"/>
+    <sheet name="20154018" sheetId="10" r:id="rId13"/>
+    <sheet name="20154016" sheetId="11" r:id="rId14"/>
+    <sheet name="20154012" sheetId="12" r:id="rId15"/>
+    <sheet name="20154030" sheetId="13" r:id="rId16"/>
+    <sheet name="20154021" sheetId="14" r:id="rId17"/>
+    <sheet name="20154028" sheetId="15" r:id="rId18"/>
+    <sheet name="20154015" sheetId="16" r:id="rId19"/>
+    <sheet name="20154014" sheetId="17" r:id="rId20"/>
+    <sheet name="20154017" sheetId="18" r:id="rId21"/>
+    <sheet name="20154024" sheetId="19" r:id="rId22"/>
+    <sheet name="20154027" sheetId="20" r:id="rId23"/>
+    <sheet name="20154019" sheetId="21" r:id="rId24"/>
+    <sheet name="20154020" sheetId="22" r:id="rId25"/>
+    <sheet name="20154013" sheetId="23" r:id="rId26"/>
+    <sheet name="20154029" sheetId="24" r:id="rId27"/>
+    <sheet name="20154025" sheetId="25" r:id="rId28"/>
+    <sheet name="20154023" sheetId="26" r:id="rId29"/>
+    <sheet name="Sheet2" sheetId="27" r:id="rId30"/>
+    <sheet name="Sheet3" sheetId="28" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
+  <si>
+    <t>UNIVERSIDADE EDUARDO MONDLANE</t>
+  </si>
+  <si>
+    <t>BOLETIM DE MATRÍCULA</t>
+  </si>
+  <si>
+    <t>Faculdade de Letras e Ciencias Sociais</t>
+  </si>
+  <si>
+    <t>Licenciatura em Administração Pública</t>
+  </si>
+  <si>
+    <t>Ano Lectivo:</t>
+  </si>
+  <si>
+    <t>Número de Estudante:</t>
+  </si>
+  <si>
+    <t>I.DADOS PESSOAIS</t>
+  </si>
+  <si>
+    <t>Apelido</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Nome Completo</t>
+  </si>
+  <si>
+    <t>Elisio</t>
+  </si>
+  <si>
+    <t>Data de Nascimento</t>
+  </si>
+  <si>
+    <t>Filho de</t>
+  </si>
+  <si>
+    <t>E de</t>
+  </si>
+  <si>
+    <t>Natural de</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Nacionalidade</t>
+  </si>
+  <si>
+    <t>Estado Civil</t>
+  </si>
+  <si>
+    <t>Documento de Identificação</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Emitido Por</t>
+  </si>
+  <si>
+    <t>Em</t>
+  </si>
+  <si>
+    <t>II.ENDEREÇO - TEMPO LECTIVO</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Rua</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Telefone Fixo</t>
+  </si>
+  <si>
+    <t>Quarteirão</t>
+  </si>
+  <si>
+    <t>Tel. Emergencia</t>
+  </si>
+  <si>
+    <t>III. HISTORIAL ACADÉMICO</t>
+  </si>
+  <si>
+    <t>Ano de conclusão do nível anterior</t>
+  </si>
+  <si>
+    <t>Nota Final</t>
+  </si>
+  <si>
+    <t>Local de Conclusão</t>
+  </si>
+  <si>
+    <t>Província</t>
+  </si>
+  <si>
+    <t>IV. COMPROMISSO DE HONRA</t>
+  </si>
+  <si>
+    <t>Juro por minhha honra que todos os dados são verdadeiros e fidedignos</t>
+  </si>
+  <si>
+    <t>Data automática</t>
+  </si>
+  <si>
+    <t>Assinatura do estudante</t>
+  </si>
+  <si>
+    <t>_______________________________________________________</t>
+  </si>
+  <si>
+    <t>Universidade Eduardo Mondlane</t>
+  </si>
+  <si>
+    <t>Faculdade de Educação</t>
+  </si>
+  <si>
+    <t>Licenciatura em Psicologia das Organizações (Pós Laboral)</t>
+  </si>
+  <si>
+    <t>Tuvalhevano</t>
+  </si>
+  <si>
+    <t>Anicia Constancio Nadi</t>
+  </si>
+  <si>
+    <t>1989-03-20</t>
+  </si>
+  <si>
+    <t>Constancio Nadi Tuvalhevano</t>
+  </si>
+  <si>
+    <t>Modesta Lucas</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t>Moçambique</t>
+  </si>
+  <si>
+    <t>Solteiro</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>+258827324834</t>
+  </si>
+  <si>
+    <t>Outra - Prov.Cabo Delgado</t>
+  </si>
+  <si>
+    <t>Temelane</t>
+  </si>
+  <si>
+    <t>Bras Nelton</t>
+  </si>
+  <si>
+    <t>1998-12-15</t>
+  </si>
+  <si>
+    <t>Bras Manuel Temelane</t>
+  </si>
+  <si>
+    <t>Cacilda Jaime Cossa</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>110100282134S</t>
+  </si>
+  <si>
+    <t>+258827566451</t>
+  </si>
+  <si>
+    <t>Escola Francisco Manyanga</t>
+  </si>
+  <si>
+    <t>Pelembe</t>
+  </si>
+  <si>
+    <t>Eugenia Moises</t>
+  </si>
+  <si>
+    <t>1990-09-29</t>
+  </si>
+  <si>
+    <t>Moises Andre Pelembe</t>
+  </si>
+  <si>
+    <t>Telma Eugenia Machava</t>
+  </si>
+  <si>
+    <t>110100482148N</t>
+  </si>
+  <si>
+    <t>+258846216392</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Zona-Verde</t>
+  </si>
+  <si>
+    <t>Pacule</t>
+  </si>
+  <si>
+    <t>Janete Fernando</t>
+  </si>
+  <si>
+    <t>1990-08-05</t>
+  </si>
+  <si>
+    <t>Fernando OfiÇo Pacule</t>
+  </si>
+  <si>
+    <t>Isabel Mateus Sambo</t>
+  </si>
+  <si>
+    <t>110100126374I</t>
+  </si>
+  <si>
+    <t>+258842560558</t>
+  </si>
+  <si>
+    <t>Nhamuave</t>
+  </si>
+  <si>
+    <t>Olga Preciosa Augusto</t>
+  </si>
+  <si>
+    <t>1996-01-22</t>
+  </si>
+  <si>
+    <t>Augusto F. Nhamuave</t>
+  </si>
+  <si>
+    <t>Preciosa E. Nhacoongo</t>
+  </si>
+  <si>
+    <t>100804171211I</t>
+  </si>
+  <si>
+    <t>+258842634648</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Namaacha</t>
+  </si>
+  <si>
+    <t>Munisse</t>
+  </si>
+  <si>
+    <t>JosÉ AntÓnio</t>
+  </si>
+  <si>
+    <t>1987-07-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AntÓnio Jossefa </t>
+  </si>
+  <si>
+    <t>Mercina Ernesto Matola</t>
+  </si>
+  <si>
+    <t>110102639599S</t>
+  </si>
+  <si>
+    <t>+258829458182</t>
+  </si>
+  <si>
+    <t>Outra - Prov Maputo</t>
+  </si>
+  <si>
+    <t>Muianga</t>
+  </si>
+  <si>
+    <t>Madalena Da Graca Eusebio</t>
+  </si>
+  <si>
+    <t>1987-06-11</t>
+  </si>
+  <si>
+    <t>Rafael Eusebio Muianga</t>
+  </si>
+  <si>
+    <t>Emelina Jossefa Moiane</t>
+  </si>
+  <si>
+    <t>110304791757P</t>
+  </si>
+  <si>
+    <t>+258826384945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moiane </t>
+  </si>
+  <si>
+    <t>Egas Jaime</t>
+  </si>
+  <si>
+    <t>1979-02-03</t>
+  </si>
+  <si>
+    <t>Jaime Nataniel Moiane</t>
+  </si>
+  <si>
+    <t>Flora Mate</t>
+  </si>
+  <si>
+    <t>110102490228Q</t>
+  </si>
+  <si>
+    <t>+258825564302</t>
+  </si>
+  <si>
+    <t>Melembe</t>
+  </si>
+  <si>
+    <t>Arlete Almirante</t>
+  </si>
+  <si>
+    <t>1995-01-30</t>
+  </si>
+  <si>
+    <t>Almirante Melembe</t>
+  </si>
+  <si>
+    <t>Arminda Give</t>
+  </si>
+  <si>
+    <t>100100689610N</t>
+  </si>
+  <si>
+    <t>+258849232159</t>
+  </si>
+  <si>
+    <t>Mazimba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinesia Meldina Mateus </t>
+  </si>
+  <si>
+    <t>1993-11-25</t>
+  </si>
+  <si>
+    <t>Mateus Junior Mazimba</t>
+  </si>
+  <si>
+    <t>Paulina Monjane</t>
+  </si>
+  <si>
+    <t>110100783986J</t>
+  </si>
+  <si>
+    <t>+258828840240</t>
+  </si>
+  <si>
+    <t>Matsinhe</t>
+  </si>
+  <si>
+    <t>Sara  Amelia Armando</t>
+  </si>
+  <si>
+    <t>1992-05-26</t>
+  </si>
+  <si>
+    <t>Armando Matsinhe</t>
+  </si>
+  <si>
+    <t>Irene Alberto Vilanculos</t>
+  </si>
+  <si>
+    <t>110201708052P</t>
+  </si>
+  <si>
+    <t>+258845013505</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Lhanguene</t>
+  </si>
+  <si>
+    <t>Matosse</t>
+  </si>
+  <si>
+    <t>Amandia Da Conceicao</t>
+  </si>
+  <si>
+    <t>1993-12-22</t>
+  </si>
+  <si>
+    <t>Vasco Armando Matosse</t>
+  </si>
+  <si>
+    <t>Amelia Afonso Macuacua</t>
+  </si>
+  <si>
+    <t>100400666782B</t>
+  </si>
+  <si>
+    <t>+258823806237</t>
+  </si>
+  <si>
+    <t>Matecana</t>
+  </si>
+  <si>
+    <t>Joaneta  Alexandre</t>
+  </si>
+  <si>
+    <t>1986-07-07</t>
+  </si>
+  <si>
+    <t>Alexandre Benjamim  Matecana</t>
+  </si>
+  <si>
+    <t>Maria Filomena</t>
+  </si>
+  <si>
+    <t>110302387009I</t>
+  </si>
+  <si>
+    <t>+258844627402</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Noroeste 1</t>
+  </si>
+  <si>
+    <t>Manjate</t>
+  </si>
+  <si>
+    <t>Carmen Helena Jorge</t>
+  </si>
+  <si>
+    <t>1994-05-31</t>
+  </si>
+  <si>
+    <t>Jorge Lucia Manjate</t>
+  </si>
+  <si>
+    <t>Elsa Anfoso Maluleque</t>
+  </si>
+  <si>
+    <t>110600358097C</t>
+  </si>
+  <si>
+    <t>+258842629943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahumane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nilza Margareth </t>
+  </si>
+  <si>
+    <t>1990-07-18</t>
+  </si>
+  <si>
+    <t>Estevao Chiculane Mahumane</t>
+  </si>
+  <si>
+    <t>Julieta Fogao Vilanculos</t>
+  </si>
+  <si>
+    <t>070101460333M</t>
+  </si>
+  <si>
+    <t>+258828666028</t>
+  </si>
+  <si>
+    <t>Instituto de Ciencias de Saude da Beira</t>
+  </si>
+  <si>
+    <t>Mahomed</t>
+  </si>
+  <si>
+    <t>SÁdia Vanessa GivÁ</t>
+  </si>
+  <si>
+    <t>1992-01-10</t>
+  </si>
+  <si>
+    <t>Abdul Satar Mahomed</t>
+  </si>
+  <si>
+    <t>FÁtima GivÁ P. Remutula</t>
+  </si>
+  <si>
+    <t>110101081335I</t>
+  </si>
+  <si>
+    <t>+258840783037</t>
+  </si>
+  <si>
+    <t>Escola Josina Machel</t>
+  </si>
+  <si>
+    <t>Mabasso</t>
+  </si>
+  <si>
+    <t>Manuel Messias</t>
+  </si>
+  <si>
+    <t>1994-04-27</t>
+  </si>
+  <si>
+    <t>Messias Joaquim Mabasso</t>
+  </si>
+  <si>
+    <t>Laurentina  Mandlate</t>
+  </si>
+  <si>
+    <t>110204591512B</t>
+  </si>
+  <si>
+    <t>+258845290519</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Massinga</t>
+  </si>
+  <si>
+    <t>Gumanhana</t>
+  </si>
+  <si>
+    <t>Domingas Ernesto</t>
+  </si>
+  <si>
+    <t>1990-06-01</t>
+  </si>
+  <si>
+    <t>Ernesto Gumanhana</t>
+  </si>
+  <si>
+    <t>Germana Agusto Bulande</t>
+  </si>
+  <si>
+    <t>110100481212B</t>
+  </si>
+  <si>
+    <t>+258828075759</t>
+  </si>
+  <si>
+    <t>Outra - Cid.Maputo</t>
+  </si>
+  <si>
+    <t>Guele</t>
+  </si>
+  <si>
+    <t>EugÉnia Rosta</t>
+  </si>
+  <si>
+    <t>1988-04-02</t>
+  </si>
+  <si>
+    <t>IcÓgnito</t>
+  </si>
+  <si>
+    <t>Rosta Guingue Guele</t>
+  </si>
+  <si>
+    <t>110101063371B</t>
+  </si>
+  <si>
+    <t>+258845685846</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Eduardo Mondlane</t>
+  </si>
+  <si>
+    <t>Cossa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neida Domingos </t>
+  </si>
+  <si>
+    <t>1991-02-25</t>
+  </si>
+  <si>
+    <t>Domingos Luis Cossa</t>
+  </si>
+  <si>
+    <t>Rosalia J.j Sithole Cossa</t>
+  </si>
+  <si>
+    <t>+258843014008</t>
+  </si>
+  <si>
+    <t>Elvim Carlos Antonio</t>
+  </si>
+  <si>
+    <t>1980-09-12</t>
+  </si>
+  <si>
+    <t>Antonio Cossa</t>
+  </si>
+  <si>
+    <t>Ruth Amadeu M. Mandlate</t>
+  </si>
+  <si>
+    <t>110100187763S</t>
+  </si>
+  <si>
+    <t>+258827586165</t>
+  </si>
+  <si>
+    <t>Escola Anglicana S.Cipriano</t>
+  </si>
+  <si>
+    <t>Chongo</t>
+  </si>
+  <si>
+    <t>Venancio</t>
+  </si>
+  <si>
+    <t>1978-02-23</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t>110200985499P</t>
+  </si>
+  <si>
+    <t>+828847310</t>
+  </si>
+  <si>
+    <t>Biasse</t>
+  </si>
+  <si>
+    <t>Janete Vasco</t>
+  </si>
+  <si>
+    <t>1991-03-22</t>
+  </si>
+  <si>
+    <t>Vasco Biasse</t>
+  </si>
+  <si>
+    <t>Tamar Paulo Baruro</t>
+  </si>
+  <si>
+    <t>11010110516C</t>
+  </si>
+  <si>
+    <t>+258846836097</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Anastancia Armindo</t>
+  </si>
+  <si>
+    <t>Armindo Alberto Inguane</t>
+  </si>
+  <si>
+    <t>Laura Taimo</t>
+  </si>
+  <si>
+    <t>110200244763B</t>
+  </si>
+  <si>
+    <t>+258825073851</t>
+  </si>
+  <si>
+    <t>Abdala</t>
+  </si>
+  <si>
+    <t>Lucia Marcelino Ali</t>
+  </si>
+  <si>
+    <t>1991-06-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcelino Ali </t>
+  </si>
+  <si>
+    <t>Muazina Ali Casimo</t>
+  </si>
+  <si>
+    <t>110201536027N</t>
+  </si>
+  <si>
+    <t>+258844412149</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -314,6 +1016,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -990,7 +1977,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154009</v>
+        <v>20154018</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -1014,7 +2001,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1030,7 +2017,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1046,7 +2033,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1062,7 +2049,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1078,7 +2065,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1093,9 +2080,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -1103,7 +2088,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -1114,7 +2099,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1123,7 +2108,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -1135,7 +2120,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -1282,7 +2267,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -1585,7 +2570,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154018</v>
+        <v>20154016</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -1688,9 +2673,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -1698,7 +2681,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -1709,7 +2692,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1718,7 +2701,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -1730,7 +2713,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -1861,7 +2844,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -1877,7 +2860,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2180,7 +3163,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154016</v>
+        <v>20154012</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2283,9 +3266,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2293,7 +3274,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2304,7 +3285,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2313,7 +3294,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2325,7 +3306,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2472,7 +3453,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2775,7 +3756,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154012</v>
+        <v>20154030</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2799,7 +3780,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2815,7 +3796,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2831,7 +3812,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2847,7 +3828,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2863,7 +3844,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2878,9 +3859,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>135</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2888,7 +3867,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2899,7 +3878,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2908,7 +3887,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2920,7 +3899,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3067,7 +4046,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3370,7 +4349,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154030</v>
+        <v>20154021</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3394,7 +4373,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3410,7 +4389,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3426,7 +4405,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3442,7 +4421,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3458,7 +4437,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3473,9 +4452,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>144</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3483,7 +4460,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3494,7 +4471,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3503,7 +4480,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3515,7 +4492,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3523,7 +4500,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3619,7 +4596,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3646,7 +4623,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3662,7 +4639,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3965,7 +4942,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154021</v>
+        <v>20154028</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3989,7 +4966,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4005,7 +4982,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4021,7 +4998,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4037,7 +5014,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4053,7 +5030,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4068,9 +5045,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4078,7 +5053,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4089,7 +5064,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4098,7 +5073,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4110,7 +5085,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4118,7 +5093,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4214,7 +5189,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4241,7 +5216,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4257,7 +5232,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4560,7 +5535,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154028</v>
+        <v>20154015</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4584,7 +5559,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4600,7 +5575,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4616,7 +5591,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4632,7 +5607,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4648,7 +5623,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4663,9 +5638,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4673,7 +5646,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4684,7 +5657,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4693,7 +5666,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4705,7 +5678,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4713,7 +5686,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4809,7 +5782,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4836,7 +5809,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4852,7 +5825,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5155,7 +6128,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154015</v>
+        <v>20154014</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5179,7 +6152,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5195,7 +6168,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5211,7 +6184,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5227,7 +6200,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5243,7 +6216,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5258,9 +6231,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5268,7 +6239,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5279,7 +6250,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5288,7 +6259,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5300,7 +6271,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5308,7 +6279,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5404,7 +6375,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5431,7 +6402,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5447,7 +6418,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5750,7 +6721,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154014</v>
+        <v>20154017</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5774,7 +6745,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5790,7 +6761,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5806,7 +6777,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5822,7 +6793,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5838,7 +6809,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5853,9 +6824,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5863,7 +6832,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5874,7 +6843,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5883,7 +6852,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5895,7 +6864,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5903,7 +6872,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5999,7 +6968,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6026,7 +6995,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6042,7 +7011,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6345,7 +7314,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154017</v>
+        <v>20154024</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6369,7 +7338,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6385,7 +7354,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6401,7 +7370,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6417,7 +7386,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6433,7 +7402,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6448,9 +7417,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>183</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6458,7 +7425,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6469,7 +7436,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6478,7 +7445,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6490,7 +7457,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6498,7 +7465,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6594,7 +7561,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6637,7 +7604,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7043,9 +8010,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7053,7 +8018,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7064,7 +8029,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7073,7 +8038,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7085,7 +8050,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7189,7 +8154,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7232,7 +8197,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7535,7 +8500,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154024</v>
+        <v>20154027</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7559,7 +8524,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7575,7 +8540,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7591,7 +8556,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7607,7 +8572,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7623,7 +8588,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7638,9 +8603,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7648,7 +8611,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7659,7 +8622,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7668,7 +8631,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7680,7 +8643,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7688,7 +8651,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7784,7 +8747,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7811,7 +8774,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7827,7 +8790,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8130,7 +9093,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154027</v>
+        <v>20154019</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8154,7 +9117,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8170,7 +9133,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8186,7 +9149,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8202,7 +9165,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8218,7 +9181,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8233,9 +9196,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>200</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8243,7 +9204,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8254,7 +9215,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8263,7 +9224,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8275,15 +9236,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>201</v>
+      <c r="H17" s="20">
+        <v>1101007236471</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8379,7 +9340,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8406,7 +9367,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8422,7 +9383,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8725,7 +9686,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154019</v>
+        <v>20154020</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8749,7 +9710,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8765,7 +9726,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8781,7 +9742,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8797,7 +9758,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8813,7 +9774,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8828,9 +9789,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8838,7 +9797,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8849,7 +9808,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8858,7 +9817,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8870,15 +9829,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>1101007236471</v>
+      <c r="H17" s="20" t="s">
+        <v>203</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8974,7 +9933,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9001,7 +9960,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9017,7 +9976,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9320,7 +10279,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154020</v>
+        <v>20154013</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9344,7 +10303,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9360,7 +10319,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9376,7 +10335,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9392,7 +10351,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9408,7 +10367,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9423,9 +10382,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9433,7 +10390,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9444,7 +10401,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9453,7 +10410,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9465,7 +10422,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9473,7 +10430,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9569,7 +10526,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9596,7 +10553,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9612,7 +10569,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9915,7 +10872,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154013</v>
+        <v>20154029</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9939,7 +10896,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9955,7 +10912,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9971,7 +10928,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9987,7 +10944,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10003,7 +10960,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10018,9 +10975,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10028,7 +10983,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10039,7 +10994,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10048,7 +11003,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10060,7 +11015,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10068,7 +11023,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10164,7 +11119,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10191,7 +11146,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10207,7 +11162,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10458,7 +11413,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -10508,7 +11465,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154487</v>
+        <v>20154025</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10532,7 +11489,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10548,7 +11505,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10563,7 +11520,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -10577,7 +11536,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>222</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -10591,7 +11552,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -10612,7 +11575,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -10621,14 +11586,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -10638,13 +11607,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>224</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -10739,7 +11712,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10765,7 +11738,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2011</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -10779,7 +11754,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -11081,7 +12058,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154029</v>
+        <v>20154023</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11184,9 +12161,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11194,7 +12169,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11205,7 +12180,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11214,7 +12189,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11226,7 +12201,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11357,7 +12332,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11373,7 +12348,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11576,6 +12551,62 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
@@ -11676,7 +12707,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154025</v>
+        <v>20154026</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11700,7 +12731,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11716,7 +12747,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>234</v>
+        <v>56</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11732,7 +12763,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11748,7 +12779,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>235</v>
+        <v>58</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11764,7 +12795,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11779,9 +12810,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11789,7 +12818,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11800,7 +12829,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11809,7 +12838,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11821,7 +12850,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11829,7 +12858,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>237</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11925,7 +12954,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11952,7 +12981,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11968,7 +12997,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12166,1252 +13195,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154023</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154026</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2008</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -13541,7 +13324,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13557,7 +13340,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13573,7 +13356,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13589,7 +13372,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13605,7 +13388,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13620,9 +13403,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13630,7 +13411,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13641,7 +13422,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13650,7 +13431,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13662,7 +13443,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13670,7 +13451,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13766,7 +13547,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13809,7 +13590,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14136,7 +13917,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14152,7 +13933,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14168,7 +13949,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14184,7 +13965,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14200,7 +13981,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14215,9 +13996,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14225,7 +14004,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14236,7 +14015,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14245,7 +14024,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14257,7 +14036,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14265,7 +14044,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14361,7 +14140,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14404,7 +14183,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14731,7 +14510,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14747,7 +14526,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14763,7 +14542,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14779,7 +14558,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14795,7 +14574,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14810,9 +14589,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14820,7 +14597,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14831,7 +14608,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14840,7 +14617,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14852,7 +14629,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14860,7 +14637,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14956,7 +14733,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14999,7 +14776,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15250,7 +15027,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -15300,7 +15079,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154486</v>
+        <v>20154031</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15324,7 +15103,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15340,7 +15119,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15355,7 +15134,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -15369,7 +15150,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -15383,7 +15166,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -15404,7 +15189,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -15413,14 +15200,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -15430,13 +15221,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -15531,7 +15326,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15557,7 +15352,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2011</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -15571,7 +15368,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -15873,7 +15672,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154031</v>
+        <v>20154008</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15897,7 +15696,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15913,7 +15712,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15929,7 +15728,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15945,7 +15744,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15961,7 +15760,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15976,9 +15775,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15986,7 +15783,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15997,7 +15794,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16006,7 +15803,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16018,7 +15815,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16026,7 +15823,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16122,7 +15919,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16149,7 +15946,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16165,7 +15962,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16468,7 +16265,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154008</v>
+        <v>20154009</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16492,7 +16289,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16508,7 +16305,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16524,7 +16321,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16540,7 +16337,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16556,7 +16353,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16571,9 +16368,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16581,7 +16376,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16592,7 +16387,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16601,7 +16396,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16613,7 +16408,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16621,7 +16416,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16717,7 +16512,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16744,7 +16539,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16760,7 +16555,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
